--- a/lib/testdata/basic_info.xlsx
+++ b/lib/testdata/basic_info.xlsx
@@ -6847,7 +6847,7 @@
     <t>热场复合材料产能建设项目,补充流动资金</t>
   </si>
   <si>
-    <t>闻泰无锡智能制造产业园项目,闻泰印度智能制造产业园项目,补充流动资金及偿还银行贷款,移动智能终端及配件研发中心建设项目,闻泰昆明智能制造产业园项目（二期）</t>
+    <t>闻泰无锡智能制造产业园项目,闻泰昆明智能制造产业园项目（二期）,闻泰印度智能制造产业园项目,补充流动资金及偿还银行贷款,移动智能终端及配件研发中心建设项目</t>
   </si>
   <si>
     <t>新型高性能结构/功能材料产业化项目和补充流动资金</t>

--- a/lib/testdata/basic_info.xlsx
+++ b/lib/testdata/basic_info.xlsx
@@ -52478,7 +52478,7 @@
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>年产12,000吨三乙膦酸铝原药技改项目,年产10,000吨水基化环境友好型制剂加工项目,绿色节能项目,年产500吨甲氨基阿维菌素苯甲酸盐新建项目,绿充流动资金</t>
+          <t>年产12,000吨三乙膦酸铝原药技改项目,年产500吨甲氨基阿维菌素苯甲酸盐新建项目,绿充流动资金,绿色节能项目,年产10,000吨水基化环境友好型制剂加工项目</t>
         </is>
       </c>
       <c r="R322" t="inlineStr"/>
@@ -52637,7 +52637,7 @@
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>盛夏厂芯片模组生产项目,越南厂可穿戴设备生产项目,惠州厂电子产品生产项目,补充流动资金项目</t>
+          <t>盛夏厂芯片模组生产项目,惠州厂电子产品生产项目,补充流动资金项目,越南厂可穿戴设备生产项目</t>
         </is>
       </c>
       <c r="R323" t="inlineStr"/>
